--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,7 +531,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -594,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -734,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -839,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -909,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1413,6 +1445,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1452,6 +1485,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1493,6 +1527,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1532,6 +1567,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1573,6 +1609,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1612,6 +1649,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1653,6 +1691,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1694,6 +1733,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1735,6 +1775,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1774,6 +1815,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1813,6 +1855,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1852,6 +1895,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1891,6 +1935,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,6 +1975,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1969,6 +2015,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2008,6 +2055,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2047,6 +2095,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2086,6 +2135,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2125,6 +2175,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2164,6 +2215,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2203,6 +2255,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2242,6 +2295,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2281,6 +2335,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2320,6 +2375,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2359,6 +2415,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2398,6 +2455,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2437,6 +2495,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2476,6 +2535,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2515,6 +2575,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2554,6 +2615,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2593,6 +2655,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2632,6 +2695,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2671,6 +2735,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2710,6 +2775,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2749,6 +2815,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2788,6 +2855,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2827,6 +2895,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2866,6 +2935,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2905,6 +2975,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2944,6 +3015,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2983,6 +3055,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3022,6 +3095,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3061,6 +3135,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3100,6 +3175,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3139,6 +3215,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3178,6 +3255,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3217,6 +3295,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3256,6 +3335,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3295,6 +3375,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3334,6 +3415,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3373,6 +3455,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3412,6 +3495,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3451,6 +3535,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3490,6 +3575,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3529,6 +3615,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3568,6 +3655,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3607,6 +3695,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3646,6 +3735,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3685,6 +3775,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3724,6 +3815,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3763,6 +3855,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3802,6 +3895,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3841,6 +3935,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3880,6 +3975,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3919,6 +4015,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3958,6 +4055,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3997,6 +4095,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4036,6 +4135,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4075,6 +4175,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4114,6 +4215,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4153,6 +4255,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4192,6 +4295,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4231,6 +4335,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4270,6 +4375,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4309,6 +4415,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4348,6 +4455,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4387,6 +4495,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4426,6 +4535,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4465,6 +4575,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4492,17 +4603,18 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1.012133072407045</v>
       </c>
     </row>
     <row r="109">
@@ -4535,14 +4647,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4574,14 +4683,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4613,14 +4719,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4652,14 +4755,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4691,14 +4791,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4730,14 +4827,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4769,14 +4863,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4808,14 +4899,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4847,14 +4935,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4886,14 +4971,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4925,14 +5007,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4964,14 +5043,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5003,14 +5079,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5042,14 +5115,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5081,14 +5151,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5120,14 +5187,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5159,14 +5223,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5198,14 +5259,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N126"/>
+  <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25.85</v>
+        <v>25.43</v>
       </c>
       <c r="C2" t="n">
-        <v>25.85</v>
+        <v>25.43</v>
       </c>
       <c r="D2" t="n">
-        <v>25.85</v>
+        <v>25.43</v>
       </c>
       <c r="E2" t="n">
-        <v>25.85</v>
+        <v>25.43</v>
       </c>
       <c r="F2" t="n">
-        <v>6859.53578336</v>
+        <v>31775.635</v>
       </c>
       <c r="G2" t="n">
-        <v>-423665.42881401</v>
+        <v>-322914.59825755</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="C3" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="D3" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="E3" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="F3" t="n">
-        <v>19286.6634</v>
+        <v>3570.0691</v>
       </c>
       <c r="G3" t="n">
-        <v>-404378.76541401</v>
+        <v>-319344.52915755</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="C4" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="D4" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="E4" t="n">
-        <v>25.86</v>
+        <v>25.5</v>
       </c>
       <c r="F4" t="n">
-        <v>17546.0444</v>
+        <v>70162.9068</v>
       </c>
       <c r="G4" t="n">
-        <v>-404378.76541401</v>
+        <v>-319344.52915755</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,28 +546,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>25.86</v>
+        <v>25.43</v>
       </c>
       <c r="C5" t="n">
-        <v>25.86</v>
+        <v>25.43</v>
       </c>
       <c r="D5" t="n">
-        <v>25.86</v>
+        <v>25.43</v>
       </c>
       <c r="E5" t="n">
-        <v>25.86</v>
+        <v>25.43</v>
       </c>
       <c r="F5" t="n">
-        <v>7592.3443</v>
+        <v>3884.6727</v>
       </c>
       <c r="G5" t="n">
-        <v>-404378.76541401</v>
+        <v>-323229.20185755</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -582,28 +582,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.86</v>
+        <v>25.42</v>
       </c>
       <c r="C6" t="n">
-        <v>25.86</v>
+        <v>25.42</v>
       </c>
       <c r="D6" t="n">
-        <v>25.86</v>
+        <v>25.42</v>
       </c>
       <c r="E6" t="n">
-        <v>25.86</v>
+        <v>25.42</v>
       </c>
       <c r="F6" t="n">
-        <v>6726.3541</v>
+        <v>25479.9692</v>
       </c>
       <c r="G6" t="n">
-        <v>-404378.76541401</v>
+        <v>-348709.1710575499</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C7" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D7" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E7" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F7" t="n">
-        <v>7652.5192</v>
+        <v>7412.31</v>
       </c>
       <c r="G7" t="n">
-        <v>-412031.28461401</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C8" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D8" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E8" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F8" t="n">
-        <v>81126.6584</v>
+        <v>15050.0454</v>
       </c>
       <c r="G8" t="n">
-        <v>-412031.28461401</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="C9" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="D9" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="E9" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="F9" t="n">
-        <v>5183.76737678</v>
+        <v>11287.5341</v>
       </c>
       <c r="G9" t="n">
-        <v>-406847.51723723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C10" t="n">
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
       <c r="D10" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E10" t="n">
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
       <c r="F10" t="n">
-        <v>15000</v>
+        <v>113407.6295</v>
       </c>
       <c r="G10" t="n">
-        <v>-421847.51723723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="C11" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="D11" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="E11" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F11" t="n">
-        <v>2454.3349</v>
+        <v>119673.8361</v>
       </c>
       <c r="G11" t="n">
-        <v>-419393.18233723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="C12" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="D12" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="E12" t="n">
-        <v>25.8</v>
+        <v>25.5</v>
       </c>
       <c r="F12" t="n">
-        <v>26430.6676</v>
+        <v>12844.3459</v>
       </c>
       <c r="G12" t="n">
-        <v>-392962.51473723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="C13" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="D13" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="E13" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="F13" t="n">
-        <v>13670.3145</v>
+        <v>24899.0081</v>
       </c>
       <c r="G13" t="n">
-        <v>-392962.51473723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="C14" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="D14" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="E14" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="F14" t="n">
-        <v>12303.2831</v>
+        <v>22791.6389</v>
       </c>
       <c r="G14" t="n">
-        <v>-392962.51473723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="C15" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="D15" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="E15" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="F15" t="n">
-        <v>77.3695</v>
+        <v>56984.9009</v>
       </c>
       <c r="G15" t="n">
-        <v>-392962.51473723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="C16" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="D16" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="E16" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="F16" t="n">
-        <v>38684.71953578</v>
+        <v>34779.3645</v>
       </c>
       <c r="G16" t="n">
-        <v>-392962.51473723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C17" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D17" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E17" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F17" t="n">
-        <v>15277.8958</v>
+        <v>60.8377</v>
       </c>
       <c r="G17" t="n">
-        <v>-408240.41053723</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
       <c r="C18" t="n">
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
       <c r="D18" t="n">
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
       <c r="E18" t="n">
-        <v>25.58</v>
+        <v>25.5</v>
       </c>
       <c r="F18" t="n">
-        <v>11499.442</v>
+        <v>581990.80995272</v>
       </c>
       <c r="G18" t="n">
-        <v>-419739.8525372299</v>
+        <v>-341296.8610575499</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>25.58</v>
+        <v>25.79</v>
       </c>
       <c r="C19" t="n">
-        <v>25.58</v>
+        <v>25.79</v>
       </c>
       <c r="D19" t="n">
-        <v>25.58</v>
+        <v>25.79</v>
       </c>
       <c r="E19" t="n">
-        <v>25.58</v>
+        <v>25.79</v>
       </c>
       <c r="F19" t="n">
-        <v>1000</v>
+        <v>2599.6663</v>
       </c>
       <c r="G19" t="n">
-        <v>-419739.8525372299</v>
+        <v>-338697.19475755</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="C20" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="D20" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="E20" t="n">
-        <v>25.59</v>
+        <v>25.79</v>
       </c>
       <c r="F20" t="n">
-        <v>8663.452300000001</v>
+        <v>32.0629</v>
       </c>
       <c r="G20" t="n">
-        <v>-411076.4002372299</v>
+        <v>-338697.19475755</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25.7</v>
+        <v>25.79</v>
       </c>
       <c r="C21" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D21" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E21" t="n">
-        <v>25.7</v>
+        <v>25.79</v>
       </c>
       <c r="F21" t="n">
-        <v>38.9106</v>
+        <v>33781.5121</v>
       </c>
       <c r="G21" t="n">
-        <v>-411037.4896372299</v>
+        <v>-304915.68265755</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>25.59</v>
+        <v>25.8</v>
       </c>
       <c r="C22" t="n">
-        <v>25.55</v>
+        <v>25.8</v>
       </c>
       <c r="D22" t="n">
-        <v>25.59</v>
+        <v>25.8</v>
       </c>
       <c r="E22" t="n">
-        <v>25.55</v>
+        <v>25.8</v>
       </c>
       <c r="F22" t="n">
-        <v>42659.3349</v>
+        <v>3828.6633</v>
       </c>
       <c r="G22" t="n">
-        <v>-453696.82453723</v>
+        <v>-304915.68265755</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>25.58</v>
+        <v>25.81</v>
       </c>
       <c r="C23" t="n">
-        <v>25.58</v>
+        <v>25.8</v>
       </c>
       <c r="D23" t="n">
-        <v>25.58</v>
+        <v>25.81</v>
       </c>
       <c r="E23" t="n">
-        <v>25.58</v>
+        <v>25.8</v>
       </c>
       <c r="F23" t="n">
-        <v>7710</v>
+        <v>23412.7564</v>
       </c>
       <c r="G23" t="n">
-        <v>-445986.82453723</v>
+        <v>-304915.68265755</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C24" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D24" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E24" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="F24" t="n">
-        <v>376.8692</v>
+        <v>12382.5461</v>
       </c>
       <c r="G24" t="n">
-        <v>-445609.9553372299</v>
+        <v>-304915.68265755</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1266,22 +1266,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>25.75</v>
+        <v>25.81</v>
       </c>
       <c r="C25" t="n">
-        <v>25.75</v>
+        <v>25.88</v>
       </c>
       <c r="D25" t="n">
-        <v>25.75</v>
+        <v>25.88</v>
       </c>
       <c r="E25" t="n">
-        <v>25.75</v>
+        <v>25.81</v>
       </c>
       <c r="F25" t="n">
-        <v>9261.3127</v>
+        <v>7493.68024354</v>
       </c>
       <c r="G25" t="n">
-        <v>-436348.6426372299</v>
+        <v>-297422.00241401</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>25.75</v>
+        <v>25.88</v>
       </c>
       <c r="C26" t="n">
-        <v>25.75</v>
+        <v>25.88</v>
       </c>
       <c r="D26" t="n">
-        <v>25.75</v>
+        <v>25.88</v>
       </c>
       <c r="E26" t="n">
-        <v>25.75</v>
+        <v>25.88</v>
       </c>
       <c r="F26" t="n">
-        <v>5000</v>
+        <v>2171.9958</v>
       </c>
       <c r="G26" t="n">
-        <v>-436348.6426372299</v>
+        <v>-297422.00241401</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25.59</v>
+        <v>25.85</v>
       </c>
       <c r="C27" t="n">
-        <v>25.55</v>
+        <v>25.85</v>
       </c>
       <c r="D27" t="n">
-        <v>25.59</v>
+        <v>25.85</v>
       </c>
       <c r="E27" t="n">
-        <v>25.55</v>
+        <v>25.85</v>
       </c>
       <c r="F27" t="n">
-        <v>20550.8371</v>
+        <v>100000</v>
       </c>
       <c r="G27" t="n">
-        <v>-456899.4797372299</v>
+        <v>-397422.00241401</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25.55</v>
+        <v>25.88</v>
       </c>
       <c r="C28" t="n">
-        <v>25.55</v>
+        <v>25.88</v>
       </c>
       <c r="D28" t="n">
-        <v>25.55</v>
+        <v>25.88</v>
       </c>
       <c r="E28" t="n">
-        <v>25.55</v>
+        <v>25.88</v>
       </c>
       <c r="F28" t="n">
-        <v>50000</v>
+        <v>1521.4837</v>
       </c>
       <c r="G28" t="n">
-        <v>-456899.4797372299</v>
+        <v>-395900.51871401</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,38 +1410,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25.55</v>
+        <v>25.85</v>
       </c>
       <c r="C29" t="n">
-        <v>25.53</v>
+        <v>25.85</v>
       </c>
       <c r="D29" t="n">
-        <v>25.55</v>
+        <v>25.85</v>
       </c>
       <c r="E29" t="n">
-        <v>25.53</v>
+        <v>25.85</v>
       </c>
       <c r="F29" t="n">
-        <v>10988.466</v>
+        <v>27764.9101</v>
       </c>
       <c r="G29" t="n">
-        <v>-467887.94573723</v>
+        <v>-423665.42881401</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>25.55</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1452,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>25.49</v>
+        <v>25.85</v>
       </c>
       <c r="C30" t="n">
-        <v>25.48</v>
+        <v>25.85</v>
       </c>
       <c r="D30" t="n">
-        <v>25.49</v>
+        <v>25.85</v>
       </c>
       <c r="E30" t="n">
-        <v>25.48</v>
+        <v>25.85</v>
       </c>
       <c r="F30" t="n">
-        <v>36743.5689</v>
+        <v>50456.9564</v>
       </c>
       <c r="G30" t="n">
-        <v>-504631.51463723</v>
+        <v>-423665.42881401</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1477,11 +1471,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1492,38 +1482,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>25.49</v>
+        <v>25.85</v>
       </c>
       <c r="C31" t="n">
-        <v>25.48</v>
+        <v>25.85</v>
       </c>
       <c r="D31" t="n">
-        <v>25.49</v>
+        <v>25.85</v>
       </c>
       <c r="E31" t="n">
-        <v>25.48</v>
+        <v>25.85</v>
       </c>
       <c r="F31" t="n">
-        <v>28647.3768</v>
+        <v>6859.53578336</v>
       </c>
       <c r="G31" t="n">
-        <v>-504631.51463723</v>
+        <v>-423665.42881401</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>25.48</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1534,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>25.48</v>
+        <v>25.86</v>
       </c>
       <c r="C32" t="n">
-        <v>25.49</v>
+        <v>25.86</v>
       </c>
       <c r="D32" t="n">
-        <v>25.49</v>
+        <v>25.86</v>
       </c>
       <c r="E32" t="n">
-        <v>25.48</v>
+        <v>25.86</v>
       </c>
       <c r="F32" t="n">
-        <v>100700.037</v>
+        <v>19286.6634</v>
       </c>
       <c r="G32" t="n">
-        <v>-403931.47763723</v>
+        <v>-404378.76541401</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1559,11 +1543,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1574,38 +1554,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>25.5</v>
+        <v>25.86</v>
       </c>
       <c r="C33" t="n">
-        <v>25.5</v>
+        <v>25.86</v>
       </c>
       <c r="D33" t="n">
-        <v>25.5</v>
+        <v>25.86</v>
       </c>
       <c r="E33" t="n">
-        <v>25.5</v>
+        <v>25.86</v>
       </c>
       <c r="F33" t="n">
-        <v>2450</v>
+        <v>17546.0444</v>
       </c>
       <c r="G33" t="n">
-        <v>-401481.47763723</v>
+        <v>-404378.76541401</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>25.49</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1616,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>25.46</v>
+        <v>25.86</v>
       </c>
       <c r="C34" t="n">
-        <v>25.46</v>
+        <v>25.86</v>
       </c>
       <c r="D34" t="n">
-        <v>25.46</v>
+        <v>25.86</v>
       </c>
       <c r="E34" t="n">
-        <v>25.46</v>
+        <v>25.86</v>
       </c>
       <c r="F34" t="n">
-        <v>6740</v>
+        <v>7592.3443</v>
       </c>
       <c r="G34" t="n">
-        <v>-408221.47763723</v>
+        <v>-404378.76541401</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1641,11 +1615,7 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1656,38 +1626,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>25.5</v>
+        <v>25.86</v>
       </c>
       <c r="C35" t="n">
-        <v>25.6</v>
+        <v>25.86</v>
       </c>
       <c r="D35" t="n">
-        <v>25.6</v>
+        <v>25.86</v>
       </c>
       <c r="E35" t="n">
-        <v>25.5</v>
+        <v>25.86</v>
       </c>
       <c r="F35" t="n">
-        <v>2489.3732</v>
+        <v>6726.3541</v>
       </c>
       <c r="G35" t="n">
-        <v>-405732.10443723</v>
+        <v>-404378.76541401</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>25.46</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1698,38 +1662,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="C36" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="D36" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="E36" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="F36" t="n">
-        <v>57900</v>
+        <v>7652.5192</v>
       </c>
       <c r="G36" t="n">
-        <v>-463632.10443723</v>
+        <v>-412031.28461401</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>25.6</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1740,38 +1698,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="C37" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="D37" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="E37" t="n">
-        <v>25.45</v>
+        <v>25.7</v>
       </c>
       <c r="F37" t="n">
-        <v>23500</v>
+        <v>81126.6584</v>
       </c>
       <c r="G37" t="n">
-        <v>-463632.10443723</v>
+        <v>-412031.28461401</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>25.45</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1782,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>25.45</v>
+        <v>25.85</v>
       </c>
       <c r="C38" t="n">
-        <v>25.44</v>
+        <v>25.85</v>
       </c>
       <c r="D38" t="n">
-        <v>25.45</v>
+        <v>25.85</v>
       </c>
       <c r="E38" t="n">
-        <v>25.44</v>
+        <v>25.85</v>
       </c>
       <c r="F38" t="n">
-        <v>30755.8253</v>
+        <v>5183.76737678</v>
       </c>
       <c r="G38" t="n">
-        <v>-494387.92973723</v>
+        <v>-406847.51723723</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1807,11 +1759,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1822,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>25.42</v>
+        <v>25.7</v>
       </c>
       <c r="C39" t="n">
-        <v>25.42</v>
+        <v>25.58</v>
       </c>
       <c r="D39" t="n">
-        <v>25.42</v>
+        <v>25.7</v>
       </c>
       <c r="E39" t="n">
-        <v>25.42</v>
+        <v>25.58</v>
       </c>
       <c r="F39" t="n">
-        <v>8200</v>
+        <v>15000</v>
       </c>
       <c r="G39" t="n">
-        <v>-502587.92973723</v>
+        <v>-421847.51723723</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1847,11 +1795,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1862,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>25.42</v>
+        <v>25.8</v>
       </c>
       <c r="C40" t="n">
-        <v>25.42</v>
+        <v>25.8</v>
       </c>
       <c r="D40" t="n">
-        <v>25.42</v>
+        <v>25.8</v>
       </c>
       <c r="E40" t="n">
-        <v>25.42</v>
+        <v>25.8</v>
       </c>
       <c r="F40" t="n">
-        <v>40031.616</v>
+        <v>2454.3349</v>
       </c>
       <c r="G40" t="n">
-        <v>-502587.92973723</v>
+        <v>-419393.18233723</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1887,11 +1831,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1902,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C41" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="D41" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="E41" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F41" t="n">
-        <v>1953.125</v>
+        <v>26430.6676</v>
       </c>
       <c r="G41" t="n">
-        <v>-500634.80473723</v>
+        <v>-392962.51473723</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1927,11 +1867,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1942,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>25.43</v>
+        <v>25.85</v>
       </c>
       <c r="C42" t="n">
-        <v>25.43</v>
+        <v>25.85</v>
       </c>
       <c r="D42" t="n">
-        <v>25.43</v>
+        <v>25.85</v>
       </c>
       <c r="E42" t="n">
-        <v>25.43</v>
+        <v>25.85</v>
       </c>
       <c r="F42" t="n">
-        <v>10170.6588</v>
+        <v>13670.3145</v>
       </c>
       <c r="G42" t="n">
-        <v>-510805.46353723</v>
+        <v>-392962.51473723</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1967,11 +1903,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1982,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>25.45</v>
+        <v>25.85</v>
       </c>
       <c r="C43" t="n">
-        <v>25.45</v>
+        <v>25.85</v>
       </c>
       <c r="D43" t="n">
-        <v>25.45</v>
+        <v>25.85</v>
       </c>
       <c r="E43" t="n">
-        <v>25.45</v>
+        <v>25.85</v>
       </c>
       <c r="F43" t="n">
-        <v>9000</v>
+        <v>12303.2831</v>
       </c>
       <c r="G43" t="n">
-        <v>-501805.46353723</v>
+        <v>-392962.51473723</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2007,11 +1939,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>25.59</v>
+        <v>25.85</v>
       </c>
       <c r="C44" t="n">
-        <v>25.59</v>
+        <v>25.85</v>
       </c>
       <c r="D44" t="n">
-        <v>25.59</v>
+        <v>25.85</v>
       </c>
       <c r="E44" t="n">
-        <v>25.59</v>
+        <v>25.85</v>
       </c>
       <c r="F44" t="n">
-        <v>9000</v>
+        <v>77.3695</v>
       </c>
       <c r="G44" t="n">
-        <v>-492805.46353723</v>
+        <v>-392962.51473723</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2047,11 +1975,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2062,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="C45" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="D45" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="E45" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="F45" t="n">
-        <v>367.5018</v>
+        <v>38684.71953578</v>
       </c>
       <c r="G45" t="n">
-        <v>-492437.96173723</v>
+        <v>-392962.51473723</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2087,11 +2011,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2102,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>25.59</v>
+        <v>25.7</v>
       </c>
       <c r="C46" t="n">
-        <v>25.75</v>
+        <v>25.7</v>
       </c>
       <c r="D46" t="n">
-        <v>25.75</v>
+        <v>25.7</v>
       </c>
       <c r="E46" t="n">
-        <v>25.59</v>
+        <v>25.7</v>
       </c>
       <c r="F46" t="n">
-        <v>387.5018</v>
+        <v>15277.8958</v>
       </c>
       <c r="G46" t="n">
-        <v>-492050.4599372299</v>
+        <v>-408240.41053723</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2127,11 +2047,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2142,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>25.59</v>
+        <v>25.58</v>
       </c>
       <c r="C47" t="n">
-        <v>25.59</v>
+        <v>25.58</v>
       </c>
       <c r="D47" t="n">
-        <v>25.59</v>
+        <v>25.58</v>
       </c>
       <c r="E47" t="n">
-        <v>25.59</v>
+        <v>25.58</v>
       </c>
       <c r="F47" t="n">
-        <v>10000</v>
+        <v>11499.442</v>
       </c>
       <c r="G47" t="n">
-        <v>-502050.4599372299</v>
+        <v>-419739.8525372299</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2167,11 +2083,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2182,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>25.6</v>
+        <v>25.58</v>
       </c>
       <c r="C48" t="n">
-        <v>25.6</v>
+        <v>25.58</v>
       </c>
       <c r="D48" t="n">
-        <v>25.6</v>
+        <v>25.58</v>
       </c>
       <c r="E48" t="n">
-        <v>25.6</v>
+        <v>25.58</v>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>-502030.4599372299</v>
+        <v>-419739.8525372299</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2207,11 +2119,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2222,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>25.75</v>
+        <v>25.59</v>
       </c>
       <c r="C49" t="n">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
       <c r="D49" t="n">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
       <c r="E49" t="n">
-        <v>25.75</v>
+        <v>25.59</v>
       </c>
       <c r="F49" t="n">
-        <v>17031.5486</v>
+        <v>8663.452300000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-484998.9113372299</v>
+        <v>-411076.4002372299</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2247,11 +2155,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2262,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="C50" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="D50" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="E50" t="n">
-        <v>25.61</v>
+        <v>25.7</v>
       </c>
       <c r="F50" t="n">
-        <v>3866.3036</v>
+        <v>38.9106</v>
       </c>
       <c r="G50" t="n">
-        <v>-488865.2149372299</v>
+        <v>-411037.4896372299</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2287,11 +2191,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2302,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
       <c r="C51" t="n">
-        <v>25.79</v>
+        <v>25.55</v>
       </c>
       <c r="D51" t="n">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
       <c r="E51" t="n">
-        <v>25.79</v>
+        <v>25.55</v>
       </c>
       <c r="F51" t="n">
-        <v>20</v>
+        <v>42659.3349</v>
       </c>
       <c r="G51" t="n">
-        <v>-488845.2149372299</v>
+        <v>-453696.82453723</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2327,11 +2227,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2342,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>25.64</v>
+        <v>25.58</v>
       </c>
       <c r="C52" t="n">
-        <v>25.64</v>
+        <v>25.58</v>
       </c>
       <c r="D52" t="n">
-        <v>25.64</v>
+        <v>25.58</v>
       </c>
       <c r="E52" t="n">
-        <v>25.64</v>
+        <v>25.58</v>
       </c>
       <c r="F52" t="n">
-        <v>21</v>
+        <v>7710</v>
       </c>
       <c r="G52" t="n">
-        <v>-488866.2149372299</v>
+        <v>-445986.82453723</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2367,11 +2263,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2382,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="C53" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="D53" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="E53" t="n">
-        <v>25.79</v>
+        <v>25.7</v>
       </c>
       <c r="F53" t="n">
-        <v>12757.9839</v>
+        <v>376.8692</v>
       </c>
       <c r="G53" t="n">
-        <v>-476108.2310372299</v>
+        <v>-445609.9553372299</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2407,11 +2299,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2422,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="C54" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="D54" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="E54" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="F54" t="n">
-        <v>2792</v>
+        <v>9261.3127</v>
       </c>
       <c r="G54" t="n">
-        <v>-473316.2310372299</v>
+        <v>-436348.6426372299</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2447,11 +2335,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2462,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="C55" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="D55" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="E55" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="F55" t="n">
-        <v>12800.609</v>
+        <v>5000</v>
       </c>
       <c r="G55" t="n">
-        <v>-473316.2310372299</v>
+        <v>-436348.6426372299</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2487,11 +2371,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2502,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>25.8</v>
+        <v>25.59</v>
       </c>
       <c r="C56" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="D56" t="n">
-        <v>25.8</v>
+        <v>25.59</v>
       </c>
       <c r="E56" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="F56" t="n">
-        <v>19407.1147</v>
+        <v>20550.8371</v>
       </c>
       <c r="G56" t="n">
-        <v>-473316.2310372299</v>
+        <v>-456899.4797372299</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2527,11 +2407,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2542,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="C57" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="D57" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="E57" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="F57" t="n">
-        <v>20844.1866</v>
+        <v>50000</v>
       </c>
       <c r="G57" t="n">
-        <v>-473316.2310372299</v>
+        <v>-456899.4797372299</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2567,11 +2443,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2582,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="C58" t="n">
-        <v>25.8</v>
+        <v>25.53</v>
       </c>
       <c r="D58" t="n">
-        <v>25.8</v>
+        <v>25.55</v>
       </c>
       <c r="E58" t="n">
-        <v>25.8</v>
+        <v>25.53</v>
       </c>
       <c r="F58" t="n">
-        <v>29064.1669</v>
+        <v>10988.466</v>
       </c>
       <c r="G58" t="n">
-        <v>-473316.2310372299</v>
+        <v>-467887.94573723</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2607,11 +2479,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2622,34 +2490,36 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>25.8</v>
+        <v>25.49</v>
       </c>
       <c r="C59" t="n">
-        <v>25.8</v>
+        <v>25.48</v>
       </c>
       <c r="D59" t="n">
-        <v>25.8</v>
+        <v>25.49</v>
       </c>
       <c r="E59" t="n">
-        <v>25.8</v>
+        <v>25.48</v>
       </c>
       <c r="F59" t="n">
-        <v>2289.8878</v>
+        <v>36743.5689</v>
       </c>
       <c r="G59" t="n">
-        <v>-473316.2310372299</v>
+        <v>-504631.51463723</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>25.53</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M59" t="n">
@@ -2662,30 +2532,32 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>25.7</v>
+        <v>25.49</v>
       </c>
       <c r="C60" t="n">
-        <v>25.7</v>
+        <v>25.48</v>
       </c>
       <c r="D60" t="n">
-        <v>25.7</v>
+        <v>25.49</v>
       </c>
       <c r="E60" t="n">
-        <v>25.7</v>
+        <v>25.48</v>
       </c>
       <c r="F60" t="n">
-        <v>29064.1669</v>
+        <v>28647.3768</v>
       </c>
       <c r="G60" t="n">
-        <v>-502380.39793723</v>
+        <v>-504631.51463723</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>25.48</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
@@ -2702,30 +2574,32 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>25.7</v>
+        <v>25.48</v>
       </c>
       <c r="C61" t="n">
-        <v>25.7</v>
+        <v>25.49</v>
       </c>
       <c r="D61" t="n">
-        <v>25.7</v>
+        <v>25.49</v>
       </c>
       <c r="E61" t="n">
-        <v>25.7</v>
+        <v>25.48</v>
       </c>
       <c r="F61" t="n">
-        <v>15967.2298</v>
+        <v>100700.037</v>
       </c>
       <c r="G61" t="n">
-        <v>-502380.39793723</v>
+        <v>-403931.47763723</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>25.48</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
@@ -2742,30 +2616,32 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="C62" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="D62" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="E62" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="F62" t="n">
-        <v>13089.7702</v>
+        <v>2450</v>
       </c>
       <c r="G62" t="n">
-        <v>-502380.39793723</v>
+        <v>-401481.47763723</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>25.49</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
@@ -2782,30 +2658,32 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>25.85</v>
+        <v>25.46</v>
       </c>
       <c r="C63" t="n">
-        <v>25.85</v>
+        <v>25.46</v>
       </c>
       <c r="D63" t="n">
-        <v>25.85</v>
+        <v>25.46</v>
       </c>
       <c r="E63" t="n">
-        <v>25.85</v>
+        <v>25.46</v>
       </c>
       <c r="F63" t="n">
-        <v>1353.96518375</v>
+        <v>6740</v>
       </c>
       <c r="G63" t="n">
-        <v>-501026.4327534799</v>
+        <v>-408221.47763723</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>25.5</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
@@ -2822,30 +2700,32 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="C64" t="n">
-        <v>25.85</v>
+        <v>25.6</v>
       </c>
       <c r="D64" t="n">
-        <v>25.85</v>
+        <v>25.6</v>
       </c>
       <c r="E64" t="n">
-        <v>25.85</v>
+        <v>25.5</v>
       </c>
       <c r="F64" t="n">
-        <v>230</v>
+        <v>2489.3732</v>
       </c>
       <c r="G64" t="n">
-        <v>-501026.4327534799</v>
+        <v>-405732.10443723</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>25.46</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
@@ -2862,30 +2742,32 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>25.85</v>
+        <v>25.45</v>
       </c>
       <c r="C65" t="n">
-        <v>25.85</v>
+        <v>25.45</v>
       </c>
       <c r="D65" t="n">
-        <v>25.85</v>
+        <v>25.45</v>
       </c>
       <c r="E65" t="n">
-        <v>25.85</v>
+        <v>25.45</v>
       </c>
       <c r="F65" t="n">
-        <v>5000</v>
+        <v>57900</v>
       </c>
       <c r="G65" t="n">
-        <v>-501026.4327534799</v>
+        <v>-463632.10443723</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
@@ -2902,30 +2784,32 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>25.7</v>
+        <v>25.45</v>
       </c>
       <c r="C66" t="n">
-        <v>25.7</v>
+        <v>25.45</v>
       </c>
       <c r="D66" t="n">
-        <v>25.7</v>
+        <v>25.45</v>
       </c>
       <c r="E66" t="n">
-        <v>25.7</v>
+        <v>25.45</v>
       </c>
       <c r="F66" t="n">
-        <v>2539.0705</v>
+        <v>23500</v>
       </c>
       <c r="G66" t="n">
-        <v>-503565.5032534799</v>
+        <v>-463632.10443723</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>25.45</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
@@ -2942,30 +2826,32 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>25.7</v>
+        <v>25.45</v>
       </c>
       <c r="C67" t="n">
-        <v>25.7</v>
+        <v>25.44</v>
       </c>
       <c r="D67" t="n">
-        <v>25.7</v>
+        <v>25.45</v>
       </c>
       <c r="E67" t="n">
-        <v>25.7</v>
+        <v>25.44</v>
       </c>
       <c r="F67" t="n">
-        <v>7805.1122</v>
+        <v>30755.8253</v>
       </c>
       <c r="G67" t="n">
-        <v>-503565.5032534799</v>
+        <v>-494387.92973723</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>25.45</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
@@ -2982,22 +2868,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="C68" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="D68" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="E68" t="n">
-        <v>25.65</v>
+        <v>25.42</v>
       </c>
       <c r="F68" t="n">
-        <v>148964.84649182</v>
+        <v>8200</v>
       </c>
       <c r="G68" t="n">
-        <v>-503565.5032534799</v>
+        <v>-502587.92973723</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3022,22 +2908,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="C69" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="D69" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="E69" t="n">
-        <v>25.7</v>
+        <v>25.42</v>
       </c>
       <c r="F69" t="n">
-        <v>31.3616</v>
+        <v>40031.616</v>
       </c>
       <c r="G69" t="n">
-        <v>-503565.5032534799</v>
+        <v>-502587.92973723</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3062,22 +2948,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="C70" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D70" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="E70" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F70" t="n">
-        <v>10841.7008</v>
+        <v>1953.125</v>
       </c>
       <c r="G70" t="n">
-        <v>-503565.5032534799</v>
+        <v>-500634.80473723</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3102,22 +2988,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>25.7</v>
+        <v>25.43</v>
       </c>
       <c r="C71" t="n">
-        <v>25.7</v>
+        <v>25.43</v>
       </c>
       <c r="D71" t="n">
-        <v>25.7</v>
+        <v>25.43</v>
       </c>
       <c r="E71" t="n">
-        <v>25.7</v>
+        <v>25.43</v>
       </c>
       <c r="F71" t="n">
-        <v>32295.80230818</v>
+        <v>10170.6588</v>
       </c>
       <c r="G71" t="n">
-        <v>-503565.5032534799</v>
+        <v>-510805.46353723</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3142,22 +3028,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>25.82</v>
+        <v>25.45</v>
       </c>
       <c r="C72" t="n">
-        <v>25.82</v>
+        <v>25.45</v>
       </c>
       <c r="D72" t="n">
-        <v>25.82</v>
+        <v>25.45</v>
       </c>
       <c r="E72" t="n">
-        <v>25.82</v>
+        <v>25.45</v>
       </c>
       <c r="F72" t="n">
-        <v>108875.6679</v>
+        <v>9000</v>
       </c>
       <c r="G72" t="n">
-        <v>-394689.8353534799</v>
+        <v>-501805.46353723</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3182,30 +3068,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>25.82</v>
+        <v>25.59</v>
       </c>
       <c r="C73" t="n">
-        <v>25.82</v>
+        <v>25.59</v>
       </c>
       <c r="D73" t="n">
-        <v>25.82</v>
+        <v>25.59</v>
       </c>
       <c r="E73" t="n">
-        <v>25.82</v>
+        <v>25.59</v>
       </c>
       <c r="F73" t="n">
-        <v>16764.9648</v>
+        <v>9000</v>
       </c>
       <c r="G73" t="n">
-        <v>-394689.8353534799</v>
+        <v>-492805.46353723</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>25.45</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
@@ -3222,22 +3110,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="C74" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="D74" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="E74" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="F74" t="n">
-        <v>4871.1592</v>
+        <v>367.5018</v>
       </c>
       <c r="G74" t="n">
-        <v>-399560.9945534799</v>
+        <v>-492437.96173723</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3262,22 +3150,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="C75" t="n">
-        <v>25.81</v>
+        <v>25.75</v>
       </c>
       <c r="D75" t="n">
-        <v>25.81</v>
+        <v>25.75</v>
       </c>
       <c r="E75" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="F75" t="n">
-        <v>20</v>
+        <v>387.5018</v>
       </c>
       <c r="G75" t="n">
-        <v>-399540.9945534799</v>
+        <v>-492050.4599372299</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3302,22 +3190,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="C76" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="D76" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="E76" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>-399540.9945534799</v>
+        <v>-502050.4599372299</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3342,22 +3230,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C77" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="D77" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E77" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="F77" t="n">
-        <v>697</v>
+        <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>-399540.9945534799</v>
+        <v>-502030.4599372299</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3382,22 +3270,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>25.81</v>
+        <v>25.75</v>
       </c>
       <c r="C78" t="n">
-        <v>25.82</v>
+        <v>25.79</v>
       </c>
       <c r="D78" t="n">
-        <v>25.82</v>
+        <v>25.79</v>
       </c>
       <c r="E78" t="n">
-        <v>25.81</v>
+        <v>25.75</v>
       </c>
       <c r="F78" t="n">
-        <v>133953.6128</v>
+        <v>17031.5486</v>
       </c>
       <c r="G78" t="n">
-        <v>-265587.3817534799</v>
+        <v>-484998.9113372299</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3422,22 +3310,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>25.82</v>
+        <v>25.61</v>
       </c>
       <c r="C79" t="n">
-        <v>25.8</v>
+        <v>25.61</v>
       </c>
       <c r="D79" t="n">
-        <v>25.82</v>
+        <v>25.61</v>
       </c>
       <c r="E79" t="n">
-        <v>25.8</v>
+        <v>25.61</v>
       </c>
       <c r="F79" t="n">
-        <v>29258.8786</v>
+        <v>3866.3036</v>
       </c>
       <c r="G79" t="n">
-        <v>-294846.2603534799</v>
+        <v>-488865.2149372299</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3462,22 +3350,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="C80" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="D80" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="E80" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="F80" t="n">
-        <v>20072.0615</v>
+        <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>-294846.2603534799</v>
+        <v>-488845.2149372299</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3502,22 +3390,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>25.8</v>
+        <v>25.64</v>
       </c>
       <c r="C81" t="n">
-        <v>25.8</v>
+        <v>25.64</v>
       </c>
       <c r="D81" t="n">
-        <v>25.8</v>
+        <v>25.64</v>
       </c>
       <c r="E81" t="n">
-        <v>25.8</v>
+        <v>25.64</v>
       </c>
       <c r="F81" t="n">
-        <v>624.41</v>
+        <v>21</v>
       </c>
       <c r="G81" t="n">
-        <v>-294846.2603534799</v>
+        <v>-488866.2149372299</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3542,22 +3430,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="C82" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="D82" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="E82" t="n">
-        <v>25.8</v>
+        <v>25.79</v>
       </c>
       <c r="F82" t="n">
-        <v>141975.59</v>
+        <v>12757.9839</v>
       </c>
       <c r="G82" t="n">
-        <v>-294846.2603534799</v>
+        <v>-476108.2310372299</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3582,22 +3470,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>25.82</v>
+        <v>25.8</v>
       </c>
       <c r="C83" t="n">
-        <v>25.85</v>
+        <v>25.8</v>
       </c>
       <c r="D83" t="n">
-        <v>25.85</v>
+        <v>25.8</v>
       </c>
       <c r="E83" t="n">
-        <v>25.82</v>
+        <v>25.8</v>
       </c>
       <c r="F83" t="n">
-        <v>77270.08809999999</v>
+        <v>2792</v>
       </c>
       <c r="G83" t="n">
-        <v>-217576.1722534799</v>
+        <v>-473316.2310372299</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3622,22 +3510,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>25.77</v>
+        <v>25.8</v>
       </c>
       <c r="C84" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D84" t="n">
-        <v>25.77</v>
+        <v>25.8</v>
       </c>
       <c r="E84" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F84" t="n">
-        <v>134650.6128</v>
+        <v>12800.609</v>
       </c>
       <c r="G84" t="n">
-        <v>-352226.7850534799</v>
+        <v>-473316.2310372299</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3662,22 +3550,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="C85" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="D85" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="E85" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="F85" t="n">
-        <v>9000</v>
+        <v>19407.1147</v>
       </c>
       <c r="G85" t="n">
-        <v>-352226.7850534799</v>
+        <v>-473316.2310372299</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3702,22 +3590,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>25.84</v>
+        <v>25.8</v>
       </c>
       <c r="C86" t="n">
-        <v>25.84</v>
+        <v>25.8</v>
       </c>
       <c r="D86" t="n">
-        <v>25.84</v>
+        <v>25.8</v>
       </c>
       <c r="E86" t="n">
-        <v>25.84</v>
+        <v>25.8</v>
       </c>
       <c r="F86" t="n">
-        <v>1934.98452012</v>
+        <v>20844.1866</v>
       </c>
       <c r="G86" t="n">
-        <v>-350291.8005333599</v>
+        <v>-473316.2310372299</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3742,22 +3630,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="C87" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="D87" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="E87" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="F87" t="n">
-        <v>20</v>
+        <v>29064.1669</v>
       </c>
       <c r="G87" t="n">
-        <v>-350311.8005333599</v>
+        <v>-473316.2310372299</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3782,22 +3670,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="C88" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="D88" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="E88" t="n">
-        <v>25.83</v>
+        <v>25.8</v>
       </c>
       <c r="F88" t="n">
-        <v>20</v>
+        <v>2289.8878</v>
       </c>
       <c r="G88" t="n">
-        <v>-350311.8005333599</v>
+        <v>-473316.2310372299</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3822,22 +3710,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>25.75</v>
+        <v>25.7</v>
       </c>
       <c r="C89" t="n">
-        <v>25.59</v>
+        <v>25.7</v>
       </c>
       <c r="D89" t="n">
-        <v>25.75</v>
+        <v>25.7</v>
       </c>
       <c r="E89" t="n">
-        <v>25.59</v>
+        <v>25.7</v>
       </c>
       <c r="F89" t="n">
-        <v>68872.67290000001</v>
+        <v>29064.1669</v>
       </c>
       <c r="G89" t="n">
-        <v>-419184.4734333599</v>
+        <v>-502380.39793723</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3862,22 +3750,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="C90" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="D90" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="E90" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="F90" t="n">
-        <v>139.3729</v>
+        <v>15967.2298</v>
       </c>
       <c r="G90" t="n">
-        <v>-419045.1005333599</v>
+        <v>-502380.39793723</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3902,22 +3790,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="C91" t="n">
-        <v>25.59</v>
+        <v>25.7</v>
       </c>
       <c r="D91" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="E91" t="n">
-        <v>25.59</v>
+        <v>25.7</v>
       </c>
       <c r="F91" t="n">
-        <v>29000</v>
+        <v>13089.7702</v>
       </c>
       <c r="G91" t="n">
-        <v>-448045.1005333599</v>
+        <v>-502380.39793723</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3942,22 +3830,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="C92" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="D92" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="E92" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="F92" t="n">
-        <v>1935.73364305</v>
+        <v>1353.96518375</v>
       </c>
       <c r="G92" t="n">
-        <v>-446109.3668903098</v>
+        <v>-501026.4327534799</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3982,22 +3870,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="C93" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="D93" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="E93" t="n">
-        <v>25.6</v>
+        <v>25.85</v>
       </c>
       <c r="F93" t="n">
-        <v>12382.5461</v>
+        <v>230</v>
       </c>
       <c r="G93" t="n">
-        <v>-458491.9129903098</v>
+        <v>-501026.4327534799</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4022,22 +3910,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="C94" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="D94" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="E94" t="n">
-        <v>25.83</v>
+        <v>25.85</v>
       </c>
       <c r="F94" t="n">
-        <v>2204</v>
+        <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>-456287.9129903098</v>
+        <v>-501026.4327534799</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4062,22 +3950,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="C95" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="D95" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="E95" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="F95" t="n">
-        <v>19195.3122</v>
+        <v>2539.0705</v>
       </c>
       <c r="G95" t="n">
-        <v>-437092.6007903098</v>
+        <v>-503565.5032534799</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4102,22 +3990,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="C96" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="D96" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="E96" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="F96" t="n">
-        <v>11364.38797988</v>
+        <v>7805.1122</v>
       </c>
       <c r="G96" t="n">
-        <v>-437092.6007903098</v>
+        <v>-503565.5032534799</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4142,22 +4030,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="C97" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="D97" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="E97" t="n">
-        <v>25.84</v>
+        <v>25.65</v>
       </c>
       <c r="F97" t="n">
-        <v>4407</v>
+        <v>148964.84649182</v>
       </c>
       <c r="G97" t="n">
-        <v>-437092.6007903098</v>
+        <v>-503565.5032534799</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4182,22 +4070,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="C98" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="D98" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="E98" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="F98" t="n">
-        <v>3423.96302012</v>
+        <v>31.3616</v>
       </c>
       <c r="G98" t="n">
-        <v>-437092.6007903098</v>
+        <v>-503565.5032534799</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4222,22 +4110,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="C99" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="D99" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="E99" t="n">
-        <v>25.84</v>
+        <v>25.7</v>
       </c>
       <c r="F99" t="n">
-        <v>3612.2165</v>
+        <v>10841.7008</v>
       </c>
       <c r="G99" t="n">
-        <v>-437092.6007903098</v>
+        <v>-503565.5032534799</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4262,22 +4150,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="C100" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="D100" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="E100" t="n">
-        <v>25.83</v>
+        <v>25.7</v>
       </c>
       <c r="F100" t="n">
-        <v>12801</v>
+        <v>32295.80230818</v>
       </c>
       <c r="G100" t="n">
-        <v>-449893.6007903098</v>
+        <v>-503565.5032534799</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4302,22 +4190,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>25.83</v>
+        <v>25.82</v>
       </c>
       <c r="C101" t="n">
-        <v>25.83</v>
+        <v>25.82</v>
       </c>
       <c r="D101" t="n">
-        <v>25.83</v>
+        <v>25.82</v>
       </c>
       <c r="E101" t="n">
-        <v>25.83</v>
+        <v>25.82</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8548</v>
+        <v>108875.6679</v>
       </c>
       <c r="G101" t="n">
-        <v>-449893.6007903098</v>
+        <v>-394689.8353534799</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4342,22 +4230,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>25.7</v>
+        <v>25.82</v>
       </c>
       <c r="C102" t="n">
-        <v>25.69</v>
+        <v>25.82</v>
       </c>
       <c r="D102" t="n">
-        <v>25.7</v>
+        <v>25.82</v>
       </c>
       <c r="E102" t="n">
-        <v>25.69</v>
+        <v>25.82</v>
       </c>
       <c r="F102" t="n">
-        <v>9927.769200000001</v>
+        <v>16764.9648</v>
       </c>
       <c r="G102" t="n">
-        <v>-459821.3699903098</v>
+        <v>-394689.8353534799</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4382,22 +4270,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="C103" t="n">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="D103" t="n">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="E103" t="n">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="F103" t="n">
-        <v>5720.7196</v>
+        <v>4871.1592</v>
       </c>
       <c r="G103" t="n">
-        <v>-459821.3699903098</v>
+        <v>-399560.9945534799</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4422,22 +4310,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="C104" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="D104" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="E104" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="F104" t="n">
-        <v>4351.5112</v>
+        <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>-459821.3699903098</v>
+        <v>-399540.9945534799</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4462,22 +4350,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="C105" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="D105" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="E105" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="F105" t="n">
-        <v>75178.3015</v>
+        <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>-459821.3699903098</v>
+        <v>-399540.9945534799</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4502,22 +4390,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="C106" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="D106" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="E106" t="n">
-        <v>25.69</v>
+        <v>25.81</v>
       </c>
       <c r="F106" t="n">
-        <v>18023.2543</v>
+        <v>697</v>
       </c>
       <c r="G106" t="n">
-        <v>-459821.3699903098</v>
+        <v>-399540.9945534799</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4542,22 +4430,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>25.84</v>
+        <v>25.81</v>
       </c>
       <c r="C107" t="n">
-        <v>25.84</v>
+        <v>25.82</v>
       </c>
       <c r="D107" t="n">
-        <v>25.84</v>
+        <v>25.82</v>
       </c>
       <c r="E107" t="n">
-        <v>25.84</v>
+        <v>25.81</v>
       </c>
       <c r="F107" t="n">
-        <v>31.7</v>
+        <v>133953.6128</v>
       </c>
       <c r="G107" t="n">
-        <v>-459789.6699903098</v>
+        <v>-265587.3817534799</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4582,62 +4470,62 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>25.69</v>
+        <v>25.82</v>
       </c>
       <c r="C108" t="n">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="D108" t="n">
-        <v>25.69</v>
+        <v>25.82</v>
       </c>
       <c r="E108" t="n">
-        <v>25.69</v>
+        <v>25.8</v>
       </c>
       <c r="F108" t="n">
-        <v>1451.1957</v>
+        <v>29258.8786</v>
       </c>
       <c r="G108" t="n">
-        <v>-461240.8656903098</v>
+        <v>-294846.2603534799</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
-        <v>1.012133072407045</v>
-      </c>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C109" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D109" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E109" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="F109" t="n">
-        <v>2024.1759</v>
+        <v>20072.0615</v>
       </c>
       <c r="G109" t="n">
-        <v>-459216.6897903098</v>
+        <v>-294846.2603534799</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4647,7 +4535,11 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4658,22 +4550,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C110" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D110" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E110" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="F110" t="n">
-        <v>2000</v>
+        <v>624.41</v>
       </c>
       <c r="G110" t="n">
-        <v>-459216.6897903098</v>
+        <v>-294846.2603534799</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4683,7 +4575,11 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4694,22 +4590,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="C111" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="D111" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="E111" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="F111" t="n">
-        <v>370.7252</v>
+        <v>141975.59</v>
       </c>
       <c r="G111" t="n">
-        <v>-459216.6897903098</v>
+        <v>-294846.2603534799</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4719,7 +4615,11 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4730,22 +4630,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>25.7</v>
+        <v>25.82</v>
       </c>
       <c r="C112" t="n">
-        <v>25.7</v>
+        <v>25.85</v>
       </c>
       <c r="D112" t="n">
-        <v>25.7</v>
+        <v>25.85</v>
       </c>
       <c r="E112" t="n">
-        <v>25.7</v>
+        <v>25.82</v>
       </c>
       <c r="F112" t="n">
-        <v>6303.502</v>
+        <v>77270.08809999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-459216.6897903098</v>
+        <v>-217576.1722534799</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4755,7 +4655,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4766,22 +4670,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>25.7</v>
+        <v>25.77</v>
       </c>
       <c r="C113" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="D113" t="n">
-        <v>25.7</v>
+        <v>25.77</v>
       </c>
       <c r="E113" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="F113" t="n">
-        <v>91943.988</v>
+        <v>134650.6128</v>
       </c>
       <c r="G113" t="n">
-        <v>-459216.6897903098</v>
+        <v>-352226.7850534799</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4791,7 +4695,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4802,22 +4710,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>25.62</v>
+        <v>25.6</v>
       </c>
       <c r="C114" t="n">
-        <v>25.59</v>
+        <v>25.6</v>
       </c>
       <c r="D114" t="n">
-        <v>25.62</v>
+        <v>25.6</v>
       </c>
       <c r="E114" t="n">
-        <v>25.59</v>
+        <v>25.6</v>
       </c>
       <c r="F114" t="n">
-        <v>299056.2812</v>
+        <v>9000</v>
       </c>
       <c r="G114" t="n">
-        <v>-758272.9709903098</v>
+        <v>-352226.7850534799</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4827,7 +4735,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4838,22 +4750,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>25.59</v>
+        <v>25.84</v>
       </c>
       <c r="C115" t="n">
-        <v>25.6</v>
+        <v>25.84</v>
       </c>
       <c r="D115" t="n">
-        <v>25.6</v>
+        <v>25.84</v>
       </c>
       <c r="E115" t="n">
-        <v>25.59</v>
+        <v>25.84</v>
       </c>
       <c r="F115" t="n">
-        <v>2977.2161</v>
+        <v>1934.98452012</v>
       </c>
       <c r="G115" t="n">
-        <v>-755295.7548903099</v>
+        <v>-350291.8005333599</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4863,7 +4775,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4874,22 +4790,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="C116" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="D116" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="E116" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="F116" t="n">
-        <v>410.0558</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-754885.6990903099</v>
+        <v>-350311.8005333599</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4899,7 +4815,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4910,22 +4830,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="C117" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="D117" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="E117" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="F117" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>-754885.6990903099</v>
+        <v>-350311.8005333599</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4935,7 +4855,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4946,22 +4870,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="C118" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="D118" t="n">
-        <v>25.8</v>
+        <v>25.75</v>
       </c>
       <c r="E118" t="n">
-        <v>25.6</v>
+        <v>25.59</v>
       </c>
       <c r="F118" t="n">
-        <v>51000</v>
+        <v>68872.67290000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-805885.6990903099</v>
+        <v>-419184.4734333599</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4971,7 +4895,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4982,22 +4910,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="C119" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="D119" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="E119" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="F119" t="n">
-        <v>3874.46726075</v>
+        <v>139.3729</v>
       </c>
       <c r="G119" t="n">
-        <v>-802011.2318295599</v>
+        <v>-419045.1005333599</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5007,7 +4935,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5018,22 +4950,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C120" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="D120" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E120" t="n">
-        <v>25.81</v>
+        <v>25.59</v>
       </c>
       <c r="F120" t="n">
-        <v>334.6542</v>
+        <v>29000</v>
       </c>
       <c r="G120" t="n">
-        <v>-802011.2318295599</v>
+        <v>-448045.1005333599</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5043,7 +4975,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5054,22 +4990,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="C121" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="D121" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="E121" t="n">
-        <v>25.81</v>
+        <v>25.83</v>
       </c>
       <c r="F121" t="n">
-        <v>3865.2725</v>
+        <v>1935.73364305</v>
       </c>
       <c r="G121" t="n">
-        <v>-802011.2318295599</v>
+        <v>-446109.3668903098</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5079,7 +5015,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5090,22 +5030,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="C122" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="D122" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="E122" t="n">
-        <v>25.81</v>
+        <v>25.6</v>
       </c>
       <c r="F122" t="n">
-        <v>1549.0603</v>
+        <v>12382.5461</v>
       </c>
       <c r="G122" t="n">
-        <v>-802011.2318295599</v>
+        <v>-458491.9129903098</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5115,7 +5055,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5126,22 +5070,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>25.61</v>
+        <v>25.83</v>
       </c>
       <c r="C123" t="n">
-        <v>25.61</v>
+        <v>25.83</v>
       </c>
       <c r="D123" t="n">
-        <v>25.61</v>
+        <v>25.83</v>
       </c>
       <c r="E123" t="n">
-        <v>25.61</v>
+        <v>25.83</v>
       </c>
       <c r="F123" t="n">
-        <v>404.0678</v>
+        <v>2204</v>
       </c>
       <c r="G123" t="n">
-        <v>-802415.2996295599</v>
+        <v>-456287.9129903098</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5151,7 +5095,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5162,22 +5110,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>25.61</v>
+        <v>25.84</v>
       </c>
       <c r="C124" t="n">
-        <v>25.61</v>
+        <v>25.84</v>
       </c>
       <c r="D124" t="n">
-        <v>25.61</v>
+        <v>25.84</v>
       </c>
       <c r="E124" t="n">
-        <v>25.61</v>
+        <v>25.84</v>
       </c>
       <c r="F124" t="n">
-        <v>1144.9925</v>
+        <v>19195.3122</v>
       </c>
       <c r="G124" t="n">
-        <v>-802415.2996295599</v>
+        <v>-437092.6007903098</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5187,7 +5135,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5198,22 +5150,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>25.8</v>
+        <v>25.84</v>
       </c>
       <c r="C125" t="n">
-        <v>25.8</v>
+        <v>25.84</v>
       </c>
       <c r="D125" t="n">
-        <v>25.8</v>
+        <v>25.84</v>
       </c>
       <c r="E125" t="n">
-        <v>25.8</v>
+        <v>25.84</v>
       </c>
       <c r="F125" t="n">
-        <v>50</v>
+        <v>11364.38797988</v>
       </c>
       <c r="G125" t="n">
-        <v>-802365.2996295599</v>
+        <v>-437092.6007903098</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5223,7 +5175,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5234,22 +5190,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>25.6</v>
+        <v>25.84</v>
       </c>
       <c r="C126" t="n">
-        <v>25.59</v>
+        <v>25.84</v>
       </c>
       <c r="D126" t="n">
-        <v>25.6</v>
+        <v>25.84</v>
       </c>
       <c r="E126" t="n">
-        <v>25.59</v>
+        <v>25.84</v>
       </c>
       <c r="F126" t="n">
-        <v>50281.505</v>
+        <v>4407</v>
       </c>
       <c r="G126" t="n">
-        <v>-852646.8046295599</v>
+        <v>-437092.6007903098</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5259,11 +5215,1175 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
       <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="C127" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D127" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E127" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3423.96302012</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-437092.6007903098</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="C128" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D128" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E128" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="F128" t="n">
+        <v>3612.2165</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-437092.6007903098</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="C129" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="D129" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="E129" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12801</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-449893.6007903098</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="C130" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="D130" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="E130" t="n">
+        <v>25.83</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.8548</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-449893.6007903098</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C131" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D131" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F131" t="n">
+        <v>9927.769200000001</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-459821.3699903098</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C132" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D132" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="E132" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F132" t="n">
+        <v>5720.7196</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-459821.3699903098</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C133" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D133" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="E133" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4351.5112</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-459821.3699903098</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C134" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D134" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="E134" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F134" t="n">
+        <v>75178.3015</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-459821.3699903098</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C135" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D135" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="E135" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F135" t="n">
+        <v>18023.2543</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-459821.3699903098</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="D136" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="E136" t="n">
+        <v>25.84</v>
+      </c>
+      <c r="F136" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-459789.6699903098</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="C137" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="D137" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="E137" t="n">
+        <v>25.69</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1451.1957</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-461240.8656903098</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C138" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D138" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E138" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2024.1759</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-459216.6897903098</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C139" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D139" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E139" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-459216.6897903098</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C140" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D140" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E140" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>370.7252</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-459216.6897903098</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C141" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D141" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E141" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6303.502</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-459216.6897903098</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="C142" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D142" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>91943.988</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-459216.6897903098</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="C143" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="D143" t="n">
+        <v>25.62</v>
+      </c>
+      <c r="E143" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="F143" t="n">
+        <v>299056.2812</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-758272.9709903098</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="C144" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D144" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E144" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2977.2161</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-755295.7548903099</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C145" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D145" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E145" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F145" t="n">
+        <v>410.0558</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-754885.6990903099</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D146" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E146" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F146" t="n">
+        <v>30</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-754885.6990903099</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="D147" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="F147" t="n">
+        <v>51000</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-805885.6990903099</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C148" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E148" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3874.46726075</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-802011.2318295599</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C149" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D149" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E149" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F149" t="n">
+        <v>334.6542</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-802011.2318295599</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D150" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E150" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3865.2725</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-802011.2318295599</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="C151" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="D151" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="E151" t="n">
+        <v>25.81</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1549.0603</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-802011.2318295599</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="C152" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="D152" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="E152" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="F152" t="n">
+        <v>404.0678</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-802415.2996295599</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="C153" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="D153" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="E153" t="n">
+        <v>25.61</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1144.9925</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-802415.2996295599</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="C154" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E154" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>50</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-802365.2996295599</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="D155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="F155" t="n">
+        <v>50281.505</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-852646.8046295599</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N155"/>
+  <dimension ref="A1:M155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-322914.59825755</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>-348709.1710575499</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>-297422.00241401</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>-297422.00241401</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>-397422.00241401</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1573,15 @@
         <v>-412031.28461401</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1606,15 @@
         <v>-412031.28461401</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>-392962.51473723</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +1870,15 @@
         <v>-392962.51473723</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +1903,15 @@
         <v>-408240.41053723</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-419739.8525372299</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,24 +2332,15 @@
         <v>-504631.51463723</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="n">
-        <v>25.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2550,24 +2365,15 @@
         <v>-504631.51463723</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>25.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2592,24 +2398,15 @@
         <v>-403931.47763723</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>25.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2634,24 +2431,15 @@
         <v>-401481.47763723</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>25.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2676,24 +2464,19 @@
         <v>-408221.47763723</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="J63" t="n">
         <v>25.5</v>
       </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2718,24 +2501,23 @@
         <v>-405732.10443723</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>25.46</v>
       </c>
       <c r="J64" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2760,24 +2542,23 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>25.6</v>
       </c>
       <c r="J65" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2802,24 +2583,21 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2844,24 +2622,21 @@
         <v>-494387.92973723</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2888,20 +2663,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2928,20 +2702,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2968,20 +2741,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3008,20 +2780,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3048,20 +2819,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3086,24 +2856,21 @@
         <v>-492805.46353723</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3130,20 +2897,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3170,20 +2936,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3210,20 +2975,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3250,20 +3014,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3290,20 +3053,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3330,20 +3092,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3370,20 +3131,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3410,20 +3170,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3450,20 +3209,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3490,20 +3248,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3530,20 +3287,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3570,20 +3326,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3610,20 +3365,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3650,20 +3404,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3690,20 +3443,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3730,20 +3482,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3770,20 +3521,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3810,20 +3560,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3850,20 +3599,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3890,20 +3638,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3930,20 +3677,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3970,20 +3716,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4010,20 +3755,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4050,20 +3794,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4090,20 +3833,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4130,20 +3872,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4170,20 +3911,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4210,20 +3950,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4250,20 +3989,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4290,20 +4028,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4330,20 +4067,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4370,20 +4106,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4410,20 +4145,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4450,20 +4184,19 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4490,20 +4223,19 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4530,20 +4262,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4570,20 +4301,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4610,20 +4340,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4650,20 +4379,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4690,20 +4418,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4730,20 +4457,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4770,20 +4496,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4810,20 +4535,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4850,20 +4574,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4890,20 +4613,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4930,20 +4652,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4970,20 +4691,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5010,20 +4730,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5050,20 +4769,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5090,20 +4808,19 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5130,20 +4847,19 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5170,20 +4886,19 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5210,20 +4925,19 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5250,20 +4964,19 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5288,22 +5001,21 @@
         <v>-437092.6007903098</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.008333333333334</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5330,20 +5042,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5370,20 +5075,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5410,20 +5108,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5450,20 +5141,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5490,20 +5174,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5530,20 +5207,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5570,20 +5240,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5610,20 +5273,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5650,20 +5306,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5690,20 +5339,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5730,20 +5372,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5770,20 +5405,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5810,20 +5438,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5850,20 +5471,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5890,20 +5504,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5928,22 +5535,15 @@
         <v>-755295.7548903099</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5970,20 +5570,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6010,20 +5603,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6050,20 +5636,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6090,20 +5669,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6130,20 +5702,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6170,20 +5735,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6210,20 +5768,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6250,20 +5801,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6290,20 +5834,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6330,20 +5867,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6370,22 +5900,15 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-322914.59825755</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-323229.20185755</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-348709.1710575499</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-297422.00241401</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-297422.00241401</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-397422.00241401</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-404378.76541401</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-404378.76541401</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-412031.28461401</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-412031.28461401</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-406847.51723723</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-419393.18233723</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-392962.51473723</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-392962.51473723</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-408240.41053723</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-419739.8525372299</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2266,10 +2266,14 @@
         <v>-456899.4797372299</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="J57" t="n">
+        <v>25.55</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2302,8 +2306,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2345,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2384,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2420,19 @@
         <v>-403931.47763723</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>25.48</v>
+      </c>
+      <c r="J61" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2461,19 @@
         <v>-401481.47763723</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="J62" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,15 +2502,19 @@
         <v>-408221.47763723</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>25.5</v>
       </c>
       <c r="J63" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>25.55</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,17 +2543,17 @@
         <v>-405732.10443723</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>25.46</v>
       </c>
       <c r="J64" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2542,13 +2584,13 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>25.6</v>
       </c>
       <c r="J65" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2583,11 +2625,13 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>25.45</v>
+      </c>
       <c r="J66" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2622,11 +2666,13 @@
         <v>-494387.92973723</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25.45</v>
+      </c>
       <c r="J67" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2665,7 +2711,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2704,7 +2750,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2743,7 +2789,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2782,7 +2828,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2821,7 +2867,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2860,7 +2906,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2899,7 +2945,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -2938,7 +2984,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -2977,7 +3023,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3016,7 +3062,7 @@
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3055,7 +3101,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3094,7 +3140,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3133,7 +3179,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3172,7 +3218,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3211,7 +3257,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3250,7 +3296,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3289,7 +3335,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3328,7 +3374,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3367,7 +3413,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3406,7 +3452,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3445,7 +3491,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3484,7 +3530,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3523,7 +3569,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3562,7 +3608,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3601,7 +3647,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3640,7 +3686,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3679,7 +3725,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3718,7 +3764,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3757,7 +3803,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3796,7 +3842,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3835,7 +3881,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3874,7 +3920,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -3913,7 +3959,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -3948,11 +3994,13 @@
         <v>-394689.8353534799</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25.7</v>
+      </c>
       <c r="J101" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -3991,7 +4039,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4030,7 +4078,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4069,7 +4117,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4108,7 +4156,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4147,7 +4195,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4186,7 +4234,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4225,7 +4273,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4264,7 +4312,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4299,11 +4347,13 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J110" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4338,11 +4388,13 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>25.8</v>
+      </c>
       <c r="J111" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4381,7 +4433,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4420,7 +4472,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4455,11 +4507,13 @@
         <v>-352226.7850534799</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J114" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4494,11 +4548,13 @@
         <v>-350291.8005333599</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J115" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4537,7 +4593,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4576,7 +4632,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4615,7 +4671,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4654,7 +4710,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4693,7 +4749,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4732,7 +4788,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4771,7 +4827,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4810,7 +4866,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4849,7 +4905,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4888,7 +4944,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -4927,7 +4983,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -4966,7 +5022,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5001,19 +5057,19 @@
         <v>-437092.6007903098</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>25.5</v>
+        <v>25.55</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.008333333333334</v>
+        <v>1</v>
       </c>
       <c r="M128" t="inlineStr"/>
     </row>
@@ -5043,8 +5099,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5076,8 +5138,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5109,8 +5177,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5142,8 +5216,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5175,8 +5255,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5208,8 +5294,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5241,8 +5333,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5274,8 +5372,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5307,8 +5411,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5340,8 +5450,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5373,8 +5489,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5406,8 +5528,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5439,8 +5567,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5472,8 +5606,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5505,8 +5645,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5535,11 +5681,17 @@
         <v>-755295.7548903099</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5571,8 +5723,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5604,8 +5762,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5637,8 +5801,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5670,8 +5840,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5703,8 +5879,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5736,8 +5918,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5769,8 +5957,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5802,8 +5996,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5835,8 +6035,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5868,8 +6074,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5901,14 +6113,20 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-322914.59825755</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-323229.20185755</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-341296.8610575499</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-304915.68265755</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-297422.00241401</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-297422.00241401</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-404378.76541401</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-404378.76541401</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-406847.51723723</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-419393.18233723</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-436348.6426372299</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,14 +2266,10 @@
         <v>-456899.4797372299</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>25.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
@@ -2303,17 +2299,11 @@
         <v>-467887.94573723</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2345,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2384,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2420,19 +2398,11 @@
         <v>-403931.47763723</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>25.48</v>
-      </c>
-      <c r="J61" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2461,19 +2431,11 @@
         <v>-401481.47763723</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>25.49</v>
-      </c>
-      <c r="J62" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2502,19 +2464,11 @@
         <v>-408221.47763723</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2543,19 +2497,11 @@
         <v>-405732.10443723</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>25.46</v>
-      </c>
-      <c r="J64" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2584,19 +2530,11 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2625,19 +2563,11 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="J66" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2666,19 +2596,11 @@
         <v>-494387.92973723</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="J67" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2710,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2749,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2788,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2827,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2866,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2794,15 @@
         <v>-492805.46353723</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>25.45</v>
+      </c>
       <c r="J73" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>25.45</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2945,11 +2835,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>25.55</v>
+        <v>25.45</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2984,11 +2874,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>25.55</v>
+        <v>25.45</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -3022,14 +2912,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3061,14 +2945,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3100,14 +2978,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3139,14 +3011,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3178,14 +3044,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3217,14 +3077,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3256,14 +3110,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3295,14 +3143,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3334,14 +3176,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3373,14 +3209,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3412,14 +3242,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3451,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3490,14 +3308,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3529,14 +3341,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3568,14 +3374,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3607,14 +3407,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3646,14 +3440,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3685,14 +3473,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3724,14 +3506,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3763,14 +3539,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3802,14 +3572,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3605,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3880,14 +3638,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3919,14 +3671,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3958,14 +3704,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3994,19 +3734,11 @@
         <v>-394689.8353534799</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4038,14 +3770,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4077,14 +3803,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4116,14 +3836,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4155,14 +3869,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4194,14 +3902,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4233,14 +3935,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4269,17 +3965,11 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4308,17 +3998,11 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4347,19 +4031,11 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J110" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4388,19 +4064,11 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="J111" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4429,17 +4097,11 @@
         <v>-217576.1722534799</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4471,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4507,19 +4163,11 @@
         <v>-352226.7850534799</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J114" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4548,19 +4196,11 @@
         <v>-350291.8005333599</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J115" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4589,17 +4229,11 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4628,17 +4262,11 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4667,17 +4295,11 @@
         <v>-419184.4734333599</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4709,14 +4331,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4748,14 +4364,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4787,14 +4397,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4826,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4865,14 +4463,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4904,14 +4496,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4943,14 +4529,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4982,14 +4562,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5021,14 +4595,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5060,14 +4628,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5099,14 +4661,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5138,14 +4694,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5177,14 +4727,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5216,14 +4760,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5255,14 +4793,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5294,14 +4826,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5333,14 +4859,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5372,14 +4892,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5411,14 +4925,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5450,14 +4958,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5489,14 +4991,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5528,14 +5024,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5567,14 +5057,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5606,14 +5090,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5645,14 +5123,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5684,14 +5156,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5723,14 +5189,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5762,14 +5222,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5801,14 +5255,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5840,14 +5288,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5879,14 +5321,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5915,17 +5351,11 @@
         <v>-802011.2318295599</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5957,14 +5387,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5993,17 +5417,11 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6032,17 +5450,11 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6074,14 +5486,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6113,20 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>25.55</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
       <c r="M155" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -451,7 +451,7 @@
         <v>-322914.59825755</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-319344.52915755</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-436348.6426372299</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-467887.94573723</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2530,10 +2530,14 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>25.6</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
@@ -2563,11 +2567,17 @@
         <v>-463632.10443723</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2606,19 @@
         <v>-494387.92973723</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>25.45</v>
+      </c>
+      <c r="J67" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2650,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2686,19 @@
         <v>-502587.92973723</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="J69" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2727,19 @@
         <v>-500634.80473723</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>25.42</v>
+      </c>
+      <c r="J70" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2768,19 @@
         <v>-510805.46353723</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2812,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2800,9 +2854,13 @@
         <v>25.45</v>
       </c>
       <c r="J73" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
+        <v>25.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,15 +2889,17 @@
         <v>-492437.96173723</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>25.59</v>
+      </c>
       <c r="J74" t="n">
-        <v>25.45</v>
+        <v>25.6</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L74" t="n">
@@ -2870,15 +2930,17 @@
         <v>-492050.4599372299</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>25.6</v>
+      </c>
       <c r="J75" t="n">
-        <v>25.45</v>
+        <v>25.6</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2909,11 +2971,19 @@
         <v>-502050.4599372299</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="J76" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2942,11 +3012,19 @@
         <v>-502030.4599372299</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>25.59</v>
+      </c>
+      <c r="J77" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2978,8 +3056,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3011,8 +3095,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3044,8 +3134,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3077,8 +3173,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3110,8 +3212,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3143,8 +3251,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3176,8 +3290,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3209,8 +3329,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3242,8 +3368,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3275,8 +3407,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3308,8 +3446,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3341,8 +3485,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3374,8 +3524,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3407,8 +3563,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3440,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3473,8 +3641,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3506,8 +3680,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3539,8 +3719,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3572,8 +3758,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3605,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3638,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3671,8 +3875,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3704,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3734,11 +3950,19 @@
         <v>-394689.8353534799</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="J101" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3770,8 +3994,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3803,8 +4033,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3836,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3869,8 +4111,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3902,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3935,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3965,11 +4225,17 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3998,11 +4264,17 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4031,11 +4303,17 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +4342,17 @@
         <v>-294846.2603534799</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4097,11 +4381,17 @@
         <v>-217576.1722534799</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4133,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4166,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4199,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4229,11 +4537,17 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4262,11 +4576,17 @@
         <v>-350311.8005333599</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4295,11 +4615,17 @@
         <v>-419184.4734333599</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4331,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4364,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4397,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4430,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4463,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4496,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4529,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4562,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4595,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4628,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4661,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4694,8 +5086,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4727,8 +5125,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4760,8 +5164,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4793,8 +5203,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4826,8 +5242,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4859,8 +5281,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4892,8 +5320,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4925,8 +5359,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4958,8 +5398,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4991,8 +5437,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5024,8 +5476,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5057,8 +5515,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5090,8 +5554,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5123,8 +5593,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5156,8 +5632,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5189,8 +5671,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5222,8 +5710,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5255,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5288,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5321,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5351,11 +5863,17 @@
         <v>-802011.2318295599</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5387,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5417,11 +5941,17 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5450,11 +5980,17 @@
         <v>-802415.2996295599</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5486,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5519,8 +6061,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2020-01-19 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-19 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M155"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>31775.635</v>
       </c>
       <c r="G2" t="n">
-        <v>-322914.59825755</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>3570.0691</v>
       </c>
       <c r="G3" t="n">
-        <v>-319344.52915755</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>70162.9068</v>
       </c>
       <c r="G4" t="n">
-        <v>-319344.52915755</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>3884.6727</v>
       </c>
       <c r="G5" t="n">
-        <v>-323229.20185755</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>25479.9692</v>
       </c>
       <c r="G6" t="n">
-        <v>-348709.1710575499</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>7412.31</v>
       </c>
       <c r="G7" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>15050.0454</v>
       </c>
       <c r="G8" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>11287.5341</v>
       </c>
       <c r="G9" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>113407.6295</v>
       </c>
       <c r="G10" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>119673.8361</v>
       </c>
       <c r="G11" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>12844.3459</v>
       </c>
       <c r="G12" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,19 @@
         <v>24899.0081</v>
       </c>
       <c r="G13" t="n">
-        <v>-341296.8610575499</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="I13" t="n">
+        <v>25.5</v>
+      </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +807,23 @@
         <v>22791.6389</v>
       </c>
       <c r="G14" t="n">
-        <v>-341296.8610575499</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +845,23 @@
         <v>56984.9009</v>
       </c>
       <c r="G15" t="n">
-        <v>-341296.8610575499</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>25.5</v>
+      </c>
+      <c r="I15" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +883,15 @@
         <v>34779.3645</v>
       </c>
       <c r="G16" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +913,15 @@
         <v>60.8377</v>
       </c>
       <c r="G17" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +943,15 @@
         <v>581990.80995272</v>
       </c>
       <c r="G18" t="n">
-        <v>-341296.8610575499</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +973,15 @@
         <v>2599.6663</v>
       </c>
       <c r="G19" t="n">
-        <v>-338697.19475755</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1003,15 @@
         <v>32.0629</v>
       </c>
       <c r="G20" t="n">
-        <v>-338697.19475755</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1033,15 @@
         <v>33781.5121</v>
       </c>
       <c r="G21" t="n">
-        <v>-304915.68265755</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1063,15 @@
         <v>3828.6633</v>
       </c>
       <c r="G22" t="n">
-        <v>-304915.68265755</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1093,15 @@
         <v>23412.7564</v>
       </c>
       <c r="G23" t="n">
-        <v>-304915.68265755</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1123,15 @@
         <v>12382.5461</v>
       </c>
       <c r="G24" t="n">
-        <v>-304915.68265755</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1153,15 @@
         <v>7493.68024354</v>
       </c>
       <c r="G25" t="n">
-        <v>-297422.00241401</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1183,15 @@
         <v>2171.9958</v>
       </c>
       <c r="G26" t="n">
-        <v>-297422.00241401</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1213,15 @@
         <v>100000</v>
       </c>
       <c r="G27" t="n">
-        <v>-397422.00241401</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1243,15 @@
         <v>1521.4837</v>
       </c>
       <c r="G28" t="n">
-        <v>-395900.51871401</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1273,15 @@
         <v>27764.9101</v>
       </c>
       <c r="G29" t="n">
-        <v>-423665.42881401</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1303,15 @@
         <v>50456.9564</v>
       </c>
       <c r="G30" t="n">
-        <v>-423665.42881401</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1333,15 @@
         <v>6859.53578336</v>
       </c>
       <c r="G31" t="n">
-        <v>-423665.42881401</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1363,15 @@
         <v>19286.6634</v>
       </c>
       <c r="G32" t="n">
-        <v>-404378.76541401</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1393,15 @@
         <v>17546.0444</v>
       </c>
       <c r="G33" t="n">
-        <v>-404378.76541401</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1423,15 @@
         <v>7592.3443</v>
       </c>
       <c r="G34" t="n">
-        <v>-404378.76541401</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1453,15 @@
         <v>6726.3541</v>
       </c>
       <c r="G35" t="n">
-        <v>-404378.76541401</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1483,15 @@
         <v>7652.5192</v>
       </c>
       <c r="G36" t="n">
-        <v>-412031.28461401</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1513,15 @@
         <v>81126.6584</v>
       </c>
       <c r="G37" t="n">
-        <v>-412031.28461401</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1543,15 @@
         <v>5183.76737678</v>
       </c>
       <c r="G38" t="n">
-        <v>-406847.51723723</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1573,15 @@
         <v>15000</v>
       </c>
       <c r="G39" t="n">
-        <v>-421847.51723723</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1603,15 @@
         <v>2454.3349</v>
       </c>
       <c r="G40" t="n">
-        <v>-419393.18233723</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1633,15 @@
         <v>26430.6676</v>
       </c>
       <c r="G41" t="n">
-        <v>-392962.51473723</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1663,15 @@
         <v>13670.3145</v>
       </c>
       <c r="G42" t="n">
-        <v>-392962.51473723</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1693,15 @@
         <v>12303.2831</v>
       </c>
       <c r="G43" t="n">
-        <v>-392962.51473723</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1723,15 @@
         <v>77.3695</v>
       </c>
       <c r="G44" t="n">
-        <v>-392962.51473723</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1753,15 @@
         <v>38684.71953578</v>
       </c>
       <c r="G45" t="n">
-        <v>-392962.51473723</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1783,15 @@
         <v>15277.8958</v>
       </c>
       <c r="G46" t="n">
-        <v>-408240.41053723</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1813,15 @@
         <v>11499.442</v>
       </c>
       <c r="G47" t="n">
-        <v>-419739.8525372299</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1843,15 @@
         <v>1000</v>
       </c>
       <c r="G48" t="n">
-        <v>-419739.8525372299</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1873,15 @@
         <v>8663.452300000001</v>
       </c>
       <c r="G49" t="n">
-        <v>-411076.4002372299</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1903,15 @@
         <v>38.9106</v>
       </c>
       <c r="G50" t="n">
-        <v>-411037.4896372299</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1933,15 @@
         <v>42659.3349</v>
       </c>
       <c r="G51" t="n">
-        <v>-453696.82453723</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1963,15 @@
         <v>7710</v>
       </c>
       <c r="G52" t="n">
-        <v>-445986.82453723</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1993,15 @@
         <v>376.8692</v>
       </c>
       <c r="G53" t="n">
-        <v>-445609.9553372299</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2023,15 @@
         <v>9261.3127</v>
       </c>
       <c r="G54" t="n">
-        <v>-436348.6426372299</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2053,15 @@
         <v>5000</v>
       </c>
       <c r="G55" t="n">
-        <v>-436348.6426372299</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2083,15 @@
         <v>20550.8371</v>
       </c>
       <c r="G56" t="n">
-        <v>-456899.4797372299</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2113,15 @@
         <v>50000</v>
       </c>
       <c r="G57" t="n">
-        <v>-456899.4797372299</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2143,15 @@
         <v>10988.466</v>
       </c>
       <c r="G58" t="n">
-        <v>-467887.94573723</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2173,15 @@
         <v>36743.5689</v>
       </c>
       <c r="G59" t="n">
-        <v>-504631.51463723</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2203,15 @@
         <v>28647.3768</v>
       </c>
       <c r="G60" t="n">
-        <v>-504631.51463723</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2233,15 @@
         <v>100700.037</v>
       </c>
       <c r="G61" t="n">
-        <v>-403931.47763723</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2263,15 @@
         <v>2450</v>
       </c>
       <c r="G62" t="n">
-        <v>-401481.47763723</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2293,15 @@
         <v>6740</v>
       </c>
       <c r="G63" t="n">
-        <v>-408221.47763723</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2323,15 @@
         <v>2489.3732</v>
       </c>
       <c r="G64" t="n">
-        <v>-405732.10443723</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,22 +2353,15 @@
         <v>57900</v>
       </c>
       <c r="G65" t="n">
-        <v>-463632.10443723</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J65" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2564,24 +2383,15 @@
         <v>23500</v>
       </c>
       <c r="G66" t="n">
-        <v>-463632.10443723</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2603,26 +2413,15 @@
         <v>30755.8253</v>
       </c>
       <c r="G67" t="n">
-        <v>-494387.92973723</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="J67" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2644,24 +2443,15 @@
         <v>8200</v>
       </c>
       <c r="G68" t="n">
-        <v>-502587.92973723</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2683,26 +2473,15 @@
         <v>40031.616</v>
       </c>
       <c r="G69" t="n">
-        <v>-502587.92973723</v>
-      </c>
-      <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J69" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2724,26 +2503,15 @@
         <v>1953.125</v>
       </c>
       <c r="G70" t="n">
-        <v>-500634.80473723</v>
-      </c>
-      <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>25.42</v>
-      </c>
-      <c r="J70" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2765,26 +2533,15 @@
         <v>10170.6588</v>
       </c>
       <c r="G71" t="n">
-        <v>-510805.46353723</v>
-      </c>
-      <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2806,24 +2563,15 @@
         <v>9000</v>
       </c>
       <c r="G72" t="n">
-        <v>-501805.46353723</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2845,26 +2593,15 @@
         <v>9000</v>
       </c>
       <c r="G73" t="n">
-        <v>-492805.46353723</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>25.45</v>
-      </c>
-      <c r="J73" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2886,26 +2623,15 @@
         <v>367.5018</v>
       </c>
       <c r="G74" t="n">
-        <v>-492437.96173723</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="J74" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2927,26 +2653,15 @@
         <v>387.5018</v>
       </c>
       <c r="G75" t="n">
-        <v>-492050.4599372299</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="J75" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2968,26 +2683,15 @@
         <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>-502050.4599372299</v>
-      </c>
-      <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="J76" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3009,26 +2713,15 @@
         <v>20</v>
       </c>
       <c r="G77" t="n">
-        <v>-502030.4599372299</v>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>25.59</v>
-      </c>
-      <c r="J77" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3050,24 +2743,15 @@
         <v>17031.5486</v>
       </c>
       <c r="G78" t="n">
-        <v>-484998.9113372299</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3089,24 +2773,15 @@
         <v>3866.3036</v>
       </c>
       <c r="G79" t="n">
-        <v>-488865.2149372299</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3128,24 +2803,15 @@
         <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>-488845.2149372299</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3167,24 +2833,15 @@
         <v>21</v>
       </c>
       <c r="G81" t="n">
-        <v>-488866.2149372299</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3206,24 +2863,15 @@
         <v>12757.9839</v>
       </c>
       <c r="G82" t="n">
-        <v>-476108.2310372299</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3245,24 +2893,15 @@
         <v>2792</v>
       </c>
       <c r="G83" t="n">
-        <v>-473316.2310372299</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3284,24 +2923,15 @@
         <v>12800.609</v>
       </c>
       <c r="G84" t="n">
-        <v>-473316.2310372299</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3323,24 +2953,15 @@
         <v>19407.1147</v>
       </c>
       <c r="G85" t="n">
-        <v>-473316.2310372299</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3362,24 +2983,15 @@
         <v>20844.1866</v>
       </c>
       <c r="G86" t="n">
-        <v>-473316.2310372299</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3401,24 +3013,15 @@
         <v>29064.1669</v>
       </c>
       <c r="G87" t="n">
-        <v>-473316.2310372299</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3440,24 +3043,15 @@
         <v>2289.8878</v>
       </c>
       <c r="G88" t="n">
-        <v>-473316.2310372299</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3479,24 +3073,15 @@
         <v>29064.1669</v>
       </c>
       <c r="G89" t="n">
-        <v>-502380.39793723</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3518,24 +3103,15 @@
         <v>15967.2298</v>
       </c>
       <c r="G90" t="n">
-        <v>-502380.39793723</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3557,24 +3133,15 @@
         <v>13089.7702</v>
       </c>
       <c r="G91" t="n">
-        <v>-502380.39793723</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3596,24 +3163,15 @@
         <v>1353.96518375</v>
       </c>
       <c r="G92" t="n">
-        <v>-501026.4327534799</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3635,24 +3193,15 @@
         <v>230</v>
       </c>
       <c r="G93" t="n">
-        <v>-501026.4327534799</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3674,24 +3223,15 @@
         <v>5000</v>
       </c>
       <c r="G94" t="n">
-        <v>-501026.4327534799</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3713,24 +3253,15 @@
         <v>2539.0705</v>
       </c>
       <c r="G95" t="n">
-        <v>-503565.5032534799</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3752,24 +3283,15 @@
         <v>7805.1122</v>
       </c>
       <c r="G96" t="n">
-        <v>-503565.5032534799</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3791,24 +3313,15 @@
         <v>148964.84649182</v>
       </c>
       <c r="G97" t="n">
-        <v>-503565.5032534799</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3830,24 +3343,15 @@
         <v>31.3616</v>
       </c>
       <c r="G98" t="n">
-        <v>-503565.5032534799</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3869,24 +3373,15 @@
         <v>10841.7008</v>
       </c>
       <c r="G99" t="n">
-        <v>-503565.5032534799</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3908,24 +3403,15 @@
         <v>32295.80230818</v>
       </c>
       <c r="G100" t="n">
-        <v>-503565.5032534799</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3947,26 +3433,15 @@
         <v>108875.6679</v>
       </c>
       <c r="G101" t="n">
-        <v>-394689.8353534799</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3988,24 +3463,15 @@
         <v>16764.9648</v>
       </c>
       <c r="G102" t="n">
-        <v>-394689.8353534799</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4027,24 +3493,15 @@
         <v>4871.1592</v>
       </c>
       <c r="G103" t="n">
-        <v>-399560.9945534799</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4066,24 +3523,15 @@
         <v>20</v>
       </c>
       <c r="G104" t="n">
-        <v>-399540.9945534799</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4105,24 +3553,15 @@
         <v>20</v>
       </c>
       <c r="G105" t="n">
-        <v>-399540.9945534799</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4144,24 +3583,15 @@
         <v>697</v>
       </c>
       <c r="G106" t="n">
-        <v>-399540.9945534799</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4183,24 +3613,15 @@
         <v>133953.6128</v>
       </c>
       <c r="G107" t="n">
-        <v>-265587.3817534799</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4222,24 +3643,15 @@
         <v>29258.8786</v>
       </c>
       <c r="G108" t="n">
-        <v>-294846.2603534799</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4261,24 +3673,15 @@
         <v>20072.0615</v>
       </c>
       <c r="G109" t="n">
-        <v>-294846.2603534799</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4300,24 +3703,15 @@
         <v>624.41</v>
       </c>
       <c r="G110" t="n">
-        <v>-294846.2603534799</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4339,24 +3733,15 @@
         <v>141975.59</v>
       </c>
       <c r="G111" t="n">
-        <v>-294846.2603534799</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4378,24 +3763,15 @@
         <v>77270.08809999999</v>
       </c>
       <c r="G112" t="n">
-        <v>-217576.1722534799</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4417,24 +3793,15 @@
         <v>134650.6128</v>
       </c>
       <c r="G113" t="n">
-        <v>-352226.7850534799</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4456,24 +3823,15 @@
         <v>9000</v>
       </c>
       <c r="G114" t="n">
-        <v>-352226.7850534799</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4495,24 +3853,15 @@
         <v>1934.98452012</v>
       </c>
       <c r="G115" t="n">
-        <v>-350291.8005333599</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4534,24 +3883,15 @@
         <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-350311.8005333599</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4573,24 +3913,15 @@
         <v>20</v>
       </c>
       <c r="G117" t="n">
-        <v>-350311.8005333599</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4612,24 +3943,15 @@
         <v>68872.67290000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-419184.4734333599</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4651,24 +3973,15 @@
         <v>139.3729</v>
       </c>
       <c r="G119" t="n">
-        <v>-419045.1005333599</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4690,24 +4003,15 @@
         <v>29000</v>
       </c>
       <c r="G120" t="n">
-        <v>-448045.1005333599</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4729,24 +4033,15 @@
         <v>1935.73364305</v>
       </c>
       <c r="G121" t="n">
-        <v>-446109.3668903098</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4768,24 +4063,15 @@
         <v>12382.5461</v>
       </c>
       <c r="G122" t="n">
-        <v>-458491.9129903098</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4807,24 +4093,15 @@
         <v>2204</v>
       </c>
       <c r="G123" t="n">
-        <v>-456287.9129903098</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4846,24 +4123,15 @@
         <v>19195.3122</v>
       </c>
       <c r="G124" t="n">
-        <v>-437092.6007903098</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4885,24 +4153,15 @@
         <v>11364.38797988</v>
       </c>
       <c r="G125" t="n">
-        <v>-437092.6007903098</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4924,24 +4183,15 @@
         <v>4407</v>
       </c>
       <c r="G126" t="n">
-        <v>-437092.6007903098</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4963,24 +4213,15 @@
         <v>3423.96302012</v>
       </c>
       <c r="G127" t="n">
-        <v>-437092.6007903098</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5002,24 +4243,15 @@
         <v>3612.2165</v>
       </c>
       <c r="G128" t="n">
-        <v>-437092.6007903098</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5041,24 +4273,15 @@
         <v>12801</v>
       </c>
       <c r="G129" t="n">
-        <v>-449893.6007903098</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5080,24 +4303,15 @@
         <v>0.8548</v>
       </c>
       <c r="G130" t="n">
-        <v>-449893.6007903098</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5119,24 +4333,15 @@
         <v>9927.769200000001</v>
       </c>
       <c r="G131" t="n">
-        <v>-459821.3699903098</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5158,24 +4363,15 @@
         <v>5720.7196</v>
       </c>
       <c r="G132" t="n">
-        <v>-459821.3699903098</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5197,24 +4393,15 @@
         <v>4351.5112</v>
       </c>
       <c r="G133" t="n">
-        <v>-459821.3699903098</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5236,24 +4423,15 @@
         <v>75178.3015</v>
       </c>
       <c r="G134" t="n">
-        <v>-459821.3699903098</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5275,24 +4453,15 @@
         <v>18023.2543</v>
       </c>
       <c r="G135" t="n">
-        <v>-459821.3699903098</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5314,24 +4483,15 @@
         <v>31.7</v>
       </c>
       <c r="G136" t="n">
-        <v>-459789.6699903098</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5353,24 +4513,15 @@
         <v>1451.1957</v>
       </c>
       <c r="G137" t="n">
-        <v>-461240.8656903098</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5392,24 +4543,15 @@
         <v>2024.1759</v>
       </c>
       <c r="G138" t="n">
-        <v>-459216.6897903098</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5431,24 +4573,15 @@
         <v>2000</v>
       </c>
       <c r="G139" t="n">
-        <v>-459216.6897903098</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5470,24 +4603,15 @@
         <v>370.7252</v>
       </c>
       <c r="G140" t="n">
-        <v>-459216.6897903098</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5509,24 +4633,15 @@
         <v>6303.502</v>
       </c>
       <c r="G141" t="n">
-        <v>-459216.6897903098</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5548,24 +4663,15 @@
         <v>91943.988</v>
       </c>
       <c r="G142" t="n">
-        <v>-459216.6897903098</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5587,24 +4693,15 @@
         <v>299056.2812</v>
       </c>
       <c r="G143" t="n">
-        <v>-758272.9709903098</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5626,24 +4723,15 @@
         <v>2977.2161</v>
       </c>
       <c r="G144" t="n">
-        <v>-755295.7548903099</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5665,24 +4753,15 @@
         <v>410.0558</v>
       </c>
       <c r="G145" t="n">
-        <v>-754885.6990903099</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5704,24 +4783,15 @@
         <v>30</v>
       </c>
       <c r="G146" t="n">
-        <v>-754885.6990903099</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5743,24 +4813,15 @@
         <v>51000</v>
       </c>
       <c r="G147" t="n">
-        <v>-805885.6990903099</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5782,24 +4843,15 @@
         <v>3874.46726075</v>
       </c>
       <c r="G148" t="n">
-        <v>-802011.2318295599</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5821,24 +4873,15 @@
         <v>334.6542</v>
       </c>
       <c r="G149" t="n">
-        <v>-802011.2318295599</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5860,24 +4903,15 @@
         <v>3865.2725</v>
       </c>
       <c r="G150" t="n">
-        <v>-802011.2318295599</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5899,24 +4933,15 @@
         <v>1549.0603</v>
       </c>
       <c r="G151" t="n">
-        <v>-802011.2318295599</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5938,24 +4963,15 @@
         <v>404.0678</v>
       </c>
       <c r="G152" t="n">
-        <v>-802415.2996295599</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5977,24 +4993,15 @@
         <v>1144.9925</v>
       </c>
       <c r="G153" t="n">
-        <v>-802415.2996295599</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6016,24 +5023,15 @@
         <v>50</v>
       </c>
       <c r="G154" t="n">
-        <v>-802365.2996295599</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6055,24 +5053,15 @@
         <v>50281.505</v>
       </c>
       <c r="G155" t="n">
-        <v>-852646.8046295599</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>25.6</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
